--- a/data/trans_orig/P15A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>18900</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11265</v>
+        <v>11720</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28720</v>
+        <v>28591</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03235510816197198</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01928418555930779</v>
+        <v>0.02006310013862937</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04916688119803367</v>
+        <v>0.0489453208928014</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -765,19 +765,19 @@
         <v>24895</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16090</v>
+        <v>16800</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35732</v>
+        <v>36265</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02699124365236412</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01744462746437913</v>
+        <v>0.01821427301555451</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03874055322747687</v>
+        <v>0.03931909416089479</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -786,19 +786,19 @@
         <v>43795</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32818</v>
+        <v>32014</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58573</v>
+        <v>60131</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02907110313774189</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02178473573571247</v>
+        <v>0.02125093776050898</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03888085328760239</v>
+        <v>0.03991512419448826</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>565241</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>555421</v>
+        <v>555550</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>572876</v>
+        <v>572421</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.967644891838028</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9508331188019664</v>
+        <v>0.9510546791071988</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9807158144406923</v>
+        <v>0.9799368998613707</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>861</v>
@@ -836,19 +836,19 @@
         <v>897438</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>886601</v>
+        <v>886068</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>906243</v>
+        <v>905533</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9730087563476358</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9612594467725232</v>
+        <v>0.9606809058391053</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.982555372535621</v>
+        <v>0.9817857269844456</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1416</v>
@@ -857,19 +857,19 @@
         <v>1462679</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1447901</v>
+        <v>1446343</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1473656</v>
+        <v>1474460</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9709288968622581</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9611191467123976</v>
+        <v>0.9600848758055118</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9782152642642876</v>
+        <v>0.9787490622394911</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>34414</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24096</v>
+        <v>23484</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48439</v>
+        <v>46701</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03192728409415871</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02235486775866465</v>
+        <v>0.021787205222622</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04493858266196939</v>
+        <v>0.04332603246209554</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -982,19 +982,19 @@
         <v>30437</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20568</v>
+        <v>21194</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44674</v>
+        <v>42381</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02878074294631718</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01944901658191759</v>
+        <v>0.02004087446706457</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04224379606402116</v>
+        <v>0.04007492117044202</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -1003,19 +1003,19 @@
         <v>64851</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49493</v>
+        <v>50856</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81422</v>
+        <v>82605</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03036901073933252</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02317726437248431</v>
+        <v>0.02381515437606754</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03812908933716529</v>
+        <v>0.03868315644875726</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1043480</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1029455</v>
+        <v>1031193</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1053798</v>
+        <v>1054410</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9680727159058413</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.955061417338031</v>
+        <v>0.9566739675379045</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9776451322413354</v>
+        <v>0.9782127947773779</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1000</v>
@@ -1053,19 +1053,19 @@
         <v>1027101</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1012864</v>
+        <v>1015157</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1036970</v>
+        <v>1036344</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9712192570536828</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9577562039359788</v>
+        <v>0.9599250788295582</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9805509834180823</v>
+        <v>0.9799591255329356</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2020</v>
@@ -1074,19 +1074,19 @@
         <v>2070581</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2054010</v>
+        <v>2052827</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2085939</v>
+        <v>2084576</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9696309892606675</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9618709106628347</v>
+        <v>0.9613168435512427</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9768227356275158</v>
+        <v>0.9761848456239324</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>44149</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31083</v>
+        <v>31765</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58498</v>
+        <v>59053</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03936233864770346</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02771325979264626</v>
+        <v>0.02832087759058773</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05215652507683776</v>
+        <v>0.05265107950466912</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -1199,19 +1199,19 @@
         <v>25476</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15970</v>
+        <v>16545</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35988</v>
+        <v>36069</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02563098695152096</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01606751847036318</v>
+        <v>0.01664610097175696</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0362077752103961</v>
+        <v>0.03628855008671725</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -1220,19 +1220,19 @@
         <v>69624</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53912</v>
+        <v>53713</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87110</v>
+        <v>89104</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03291094857365927</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02548403615873757</v>
+        <v>0.02538975282405839</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04117637719753333</v>
+        <v>0.04211905289515515</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1077445</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1063096</v>
+        <v>1062541</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1090511</v>
+        <v>1089829</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9606376613522966</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9478434749231623</v>
+        <v>0.9473489204953325</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9722867402073538</v>
+        <v>0.9716791224094123</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>957</v>
@@ -1270,19 +1270,19 @@
         <v>968464</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>957952</v>
+        <v>957871</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>977970</v>
+        <v>977395</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.974369013048479</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9637922247896039</v>
+        <v>0.9637114499132829</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9839324815296369</v>
+        <v>0.9833538990282435</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2019</v>
@@ -1291,19 +1291,19 @@
         <v>2045910</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2028424</v>
+        <v>2026430</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2061622</v>
+        <v>2061821</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9670890514263407</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9588236228024668</v>
+        <v>0.9578809471048448</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9745159638412626</v>
+        <v>0.9746102471759414</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>24670</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15864</v>
+        <v>15488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35996</v>
+        <v>36768</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0551659908570457</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03547437835617832</v>
+        <v>0.034634062680953</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08049300360671797</v>
+        <v>0.08221925575888224</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>10895</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5547</v>
+        <v>5889</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18994</v>
+        <v>18742</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03193393755379329</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01625847787694024</v>
+        <v>0.01726074830916529</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05567378714265228</v>
+        <v>0.05493538756258656</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -1437,19 +1437,19 @@
         <v>35565</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25584</v>
+        <v>24541</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49846</v>
+        <v>49673</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04511242848483188</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0324517430409918</v>
+        <v>0.03112932559931737</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06322759704032159</v>
+        <v>0.06300759173003571</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>422530</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>411204</v>
+        <v>410432</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>431336</v>
+        <v>431712</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9448340091429543</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9195069963932824</v>
+        <v>0.9177807442411177</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9645256216438218</v>
+        <v>0.965365937319047</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>328</v>
@@ -1487,19 +1487,19 @@
         <v>330263</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>322164</v>
+        <v>322416</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>335611</v>
+        <v>335269</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9680660624462067</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9443262128573476</v>
+        <v>0.9450646124374135</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9837415221230598</v>
+        <v>0.9827392516908348</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>741</v>
@@ -1508,19 +1508,19 @@
         <v>752793</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>738512</v>
+        <v>738685</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>762774</v>
+        <v>763817</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9548875715151681</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9367724029596781</v>
+        <v>0.9369924082699642</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9675482569590081</v>
+        <v>0.9688706744006826</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>122133</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>102029</v>
+        <v>102783</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>148183</v>
+        <v>145732</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03780235944802356</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03157991935494229</v>
+        <v>0.03181333690797527</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04586540793383599</v>
+        <v>0.04510680693993285</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -1633,19 +1633,19 @@
         <v>91702</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73335</v>
+        <v>74189</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>110031</v>
+        <v>112029</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02766295136522779</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02212234615088561</v>
+        <v>0.02237991222757764</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03319229694497553</v>
+        <v>0.03379497891702605</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>206</v>
@@ -1654,19 +1654,19 @@
         <v>213835</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>185343</v>
+        <v>186365</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>242311</v>
+        <v>244735</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03266748955753498</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02831480186283177</v>
+        <v>0.02847089463740574</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03701777630860792</v>
+        <v>0.03738815383711191</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3108696</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3082646</v>
+        <v>3085097</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3128800</v>
+        <v>3128046</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9621976405519764</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.954134592066164</v>
+        <v>0.9548931930600671</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9684200806450577</v>
+        <v>0.9681866630920246</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3146</v>
@@ -1704,19 +1704,19 @@
         <v>3223267</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3204938</v>
+        <v>3202940</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3241634</v>
+        <v>3240780</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9723370486347722</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9668077030550245</v>
+        <v>0.966205021082974</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9778776538491144</v>
+        <v>0.9776200877724225</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6196</v>
@@ -1725,19 +1725,19 @@
         <v>6331963</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6303487</v>
+        <v>6301063</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6360455</v>
+        <v>6359433</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.967332510442465</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9629822236913923</v>
+        <v>0.9626118461628883</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9716851981371684</v>
+        <v>0.9715291053625943</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>21961</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13976</v>
+        <v>13933</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34426</v>
+        <v>35009</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02103698237523766</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01338828224129891</v>
+        <v>0.01334654080459609</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03297723410208654</v>
+        <v>0.03353589986177407</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -2090,19 +2090,19 @@
         <v>27672</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18444</v>
+        <v>19354</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39811</v>
+        <v>40775</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02470913590081373</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01646908686522774</v>
+        <v>0.01728176095576303</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03554745488025612</v>
+        <v>0.03640837808986467</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -2111,19 +2111,19 @@
         <v>49634</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36271</v>
+        <v>35894</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64419</v>
+        <v>66107</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02293754103808131</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01676208879711644</v>
+        <v>0.01658787442778705</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02977037455935662</v>
+        <v>0.03055029335132011</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1021974</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1009509</v>
+        <v>1008926</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1029959</v>
+        <v>1030002</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9789630176247623</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9670227658979133</v>
+        <v>0.9664641001382266</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9866117177587009</v>
+        <v>0.9866534591954043</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1005</v>
@@ -2161,19 +2161,19 @@
         <v>1092256</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1080117</v>
+        <v>1079153</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1101484</v>
+        <v>1100574</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9752908640991863</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.964452545119744</v>
+        <v>0.9635916219101355</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9835309131347724</v>
+        <v>0.9827182390442371</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1963</v>
@@ -2182,19 +2182,19 @@
         <v>2114229</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2099444</v>
+        <v>2097756</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2127592</v>
+        <v>2127969</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9770624589619187</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9702296254406433</v>
+        <v>0.9694497066486797</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9832379112028833</v>
+        <v>0.9834121255722128</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>32541</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23461</v>
+        <v>21736</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46151</v>
+        <v>43698</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03330443129365682</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02401131322873043</v>
+        <v>0.02224599953019404</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04723369142884724</v>
+        <v>0.04472305271295441</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -2307,19 +2307,19 @@
         <v>29336</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19422</v>
+        <v>19905</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41854</v>
+        <v>42520</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02680929042592878</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01774927434785349</v>
+        <v>0.0181899297248136</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03824858372541231</v>
+        <v>0.03885737982654691</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -2328,19 +2328,19 @@
         <v>61877</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46466</v>
+        <v>47780</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78286</v>
+        <v>79072</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02987312392251142</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02243299312350831</v>
+        <v>0.02306724665861527</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03779506989296659</v>
+        <v>0.03817444054920919</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>944532</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>930922</v>
+        <v>933375</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>953612</v>
+        <v>955337</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9666955687063432</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.952766308571153</v>
+        <v>0.9552769472870457</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9759886867712697</v>
+        <v>0.9777540004698061</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>993</v>
@@ -2378,19 +2378,19 @@
         <v>1064926</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1052408</v>
+        <v>1051742</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1074840</v>
+        <v>1074357</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9731907095740712</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9617514162745879</v>
+        <v>0.9611426201734531</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9822507256521467</v>
+        <v>0.9818100702751864</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1885</v>
@@ -2399,19 +2399,19 @@
         <v>2009458</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1993049</v>
+        <v>1992263</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2024869</v>
+        <v>2023555</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9701268760774886</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9622049301070343</v>
+        <v>0.9618255594507911</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9775670068764918</v>
+        <v>0.9769327533413847</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>24054</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15336</v>
+        <v>16061</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33845</v>
+        <v>35054</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02717609274393439</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01732641836753542</v>
+        <v>0.01814555458303745</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03823849532329909</v>
+        <v>0.03960357856814539</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -2524,19 +2524,19 @@
         <v>28154</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18827</v>
+        <v>18932</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41742</v>
+        <v>40315</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03214643965653579</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02149688205699401</v>
+        <v>0.02161644389779777</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04766201290737244</v>
+        <v>0.04603265488026357</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -2545,19 +2545,19 @@
         <v>52208</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39368</v>
+        <v>39781</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67390</v>
+        <v>68259</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.029648113835758</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02235657903750614</v>
+        <v>0.02259105720072608</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03827010850113613</v>
+        <v>0.0387636077635689</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>861061</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>851270</v>
+        <v>850061</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>869779</v>
+        <v>869054</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9728239072560656</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9617615046767015</v>
+        <v>0.9603964214318549</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9826735816324647</v>
+        <v>0.9818544454169628</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>795</v>
@@ -2595,19 +2595,19 @@
         <v>847642</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>834054</v>
+        <v>835481</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>856969</v>
+        <v>856864</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9678535603434643</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9523379870926275</v>
+        <v>0.9539673451197369</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9785031179430059</v>
+        <v>0.9783835561022024</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1600</v>
@@ -2616,19 +2616,19 @@
         <v>1708703</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1693521</v>
+        <v>1692652</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1721543</v>
+        <v>1721130</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.970351886164242</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9617298914988638</v>
+        <v>0.961236392236431</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9776434209624938</v>
+        <v>0.9774089427992739</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>19759</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11789</v>
+        <v>11896</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32156</v>
+        <v>32629</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03928023105870182</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02343717470937837</v>
+        <v>0.02364967629039669</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06392591899726738</v>
+        <v>0.06486653469692566</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -2741,19 +2741,19 @@
         <v>12239</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6244</v>
+        <v>6285</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23307</v>
+        <v>21997</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02703285813649064</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01379100997599642</v>
+        <v>0.01388182667006669</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05148111903001409</v>
+        <v>0.04858770135972497</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -2762,19 +2762,19 @@
         <v>31998</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20985</v>
+        <v>22496</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45181</v>
+        <v>48665</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03347874145005294</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02195681410957002</v>
+        <v>0.02353729837382396</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04727255471900527</v>
+        <v>0.0509178615786058</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>483264</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>470867</v>
+        <v>470394</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>491234</v>
+        <v>491127</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9607197689412982</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9360740810027327</v>
+        <v>0.9351334653030743</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9765628252906217</v>
+        <v>0.9763503237096033</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>402</v>
@@ -2812,19 +2812,19 @@
         <v>440497</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>429429</v>
+        <v>430739</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>446492</v>
+        <v>446451</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9729671418635094</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9485188809699857</v>
+        <v>0.951412298640275</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9862089900240035</v>
+        <v>0.9861181733299332</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>846</v>
@@ -2833,19 +2833,19 @@
         <v>923760</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>910577</v>
+        <v>907093</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>934773</v>
+        <v>933262</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9665212585499471</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9527274452809947</v>
+        <v>0.9490821384213942</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.97804318589043</v>
+        <v>0.9764627016261761</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>98315</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78223</v>
+        <v>79189</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>118692</v>
+        <v>120126</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02883857924435817</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02294510514876407</v>
+        <v>0.02322846222252066</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0348157037107546</v>
+        <v>0.03523629522306543</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>89</v>
@@ -2958,19 +2958,19 @@
         <v>97401</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>79828</v>
+        <v>78249</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>118906</v>
+        <v>117881</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02749335411443369</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02253303643767413</v>
+        <v>0.02208733411412689</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03356342346479193</v>
+        <v>0.03327407291758754</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>183</v>
@@ -2979,19 +2979,19 @@
         <v>195716</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>169429</v>
+        <v>170160</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>226105</v>
+        <v>226718</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02815304277564274</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02437179407912185</v>
+        <v>0.02447683744423272</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03252433048089301</v>
+        <v>0.03261247663136201</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3310830</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3290453</v>
+        <v>3289019</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3330922</v>
+        <v>3329956</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9711614207556418</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9651842962892448</v>
+        <v>0.9647637047769348</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9770548948512358</v>
+        <v>0.9767715377774794</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3195</v>
@@ -3029,19 +3029,19 @@
         <v>3445321</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3423816</v>
+        <v>3424841</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3462894</v>
+        <v>3464473</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9725066458855663</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.966436576535208</v>
+        <v>0.9667259270824122</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9774669635623258</v>
+        <v>0.9779126658858731</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6294</v>
@@ -3050,19 +3050,19 @@
         <v>6756151</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6725762</v>
+        <v>6725149</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6782438</v>
+        <v>6781707</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9718469572243572</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.967475669519107</v>
+        <v>0.9673875233686376</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9756282059208785</v>
+        <v>0.9755231625557672</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>32130</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22020</v>
+        <v>22344</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45500</v>
+        <v>46347</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02848411556952922</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01952173890947185</v>
+        <v>0.01980843077473045</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04033731931133221</v>
+        <v>0.04108811874738386</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -3415,19 +3415,19 @@
         <v>34401</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23629</v>
+        <v>23773</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48318</v>
+        <v>49744</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02731208938295258</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01875975083785502</v>
+        <v>0.01887423976880523</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03836071612941084</v>
+        <v>0.03949309674760286</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>61</v>
@@ -3436,19 +3436,19 @@
         <v>66531</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51421</v>
+        <v>51327</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83979</v>
+        <v>83781</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0278658109227378</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02153689234928374</v>
+        <v>0.02149768940654955</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03517341512492754</v>
+        <v>0.03509081430468382</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1095867</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1082497</v>
+        <v>1081650</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1105977</v>
+        <v>1105653</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9715158844304708</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9596626806886677</v>
+        <v>0.9589118812526161</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.980478261090528</v>
+        <v>0.9801915692252695</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1158</v>
@@ -3486,19 +3486,19 @@
         <v>1225160</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1211243</v>
+        <v>1209817</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1235932</v>
+        <v>1235788</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9726879106170474</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9616392838705894</v>
+        <v>0.9605069032523972</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9812402491621451</v>
+        <v>0.9811257602311948</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2193</v>
@@ -3507,19 +3507,19 @@
         <v>2321027</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2303579</v>
+        <v>2303777</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2336137</v>
+        <v>2336231</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9721341890772622</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9648265848750724</v>
+        <v>0.9649091856953161</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9784631076507162</v>
+        <v>0.9785023105934504</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>23948</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15669</v>
+        <v>15431</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35420</v>
+        <v>35224</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0263506821317552</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01724081394837854</v>
+        <v>0.01697960275032705</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03897382896916279</v>
+        <v>0.03875771151742309</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -3632,19 +3632,19 @@
         <v>22136</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13358</v>
+        <v>13133</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34356</v>
+        <v>34415</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02199388261647951</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01327185267282098</v>
+        <v>0.01304843483557185</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0341345274744172</v>
+        <v>0.03419402889425787</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -3653,19 +3653,19 @@
         <v>46084</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33548</v>
+        <v>33859</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60898</v>
+        <v>61558</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02406121786421099</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01751574815039581</v>
+        <v>0.01767819648428418</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03179543652697572</v>
+        <v>0.03214032749077086</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>884877</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>873405</v>
+        <v>873601</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>893156</v>
+        <v>893394</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9736493178682448</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9610261710308372</v>
+        <v>0.9612422884825769</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9827591860516214</v>
+        <v>0.9830203972496729</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>932</v>
@@ -3703,19 +3703,19 @@
         <v>984339</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>972119</v>
+        <v>972060</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>993117</v>
+        <v>993342</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9780061173835205</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9658654725255827</v>
+        <v>0.9658059711057421</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.986728147327179</v>
+        <v>0.9869515651644282</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1789</v>
@@ -3724,19 +3724,19 @@
         <v>1869216</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1854402</v>
+        <v>1853742</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1881752</v>
+        <v>1881441</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.975938782135789</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9682045634730243</v>
+        <v>0.9678596725092291</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9824842518496042</v>
+        <v>0.9823218035157157</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>22395</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14351</v>
+        <v>14477</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32664</v>
+        <v>32427</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02718600968567504</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01742192723978008</v>
+        <v>0.01757424613504538</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03965228857544092</v>
+        <v>0.03936446470625519</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -3849,19 +3849,19 @@
         <v>22563</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14214</v>
+        <v>14459</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34605</v>
+        <v>33094</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02926237320718156</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01843432927769572</v>
+        <v>0.01875215741102793</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04488008573879068</v>
+        <v>0.04292007280246261</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -3870,19 +3870,19 @@
         <v>44958</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32385</v>
+        <v>32364</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59906</v>
+        <v>60725</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02818988483672644</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02030647643065226</v>
+        <v>0.02029314571048759</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03756310468918598</v>
+        <v>0.03807652791529396</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>801364</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>791095</v>
+        <v>791332</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>809408</v>
+        <v>809282</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9728139903143249</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9603477114245599</v>
+        <v>0.9606355352937448</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9825780727602201</v>
+        <v>0.9824257538649546</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>708</v>
@@ -3920,19 +3920,19 @@
         <v>748496</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>736454</v>
+        <v>737965</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>756845</v>
+        <v>756600</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9707376267928184</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9551199142612091</v>
+        <v>0.9570799271975374</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9815656707223043</v>
+        <v>0.9812478425889721</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1473</v>
@@ -3941,19 +3941,19 @@
         <v>1549860</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1534912</v>
+        <v>1534093</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1562433</v>
+        <v>1562454</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9718101151632735</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9624368953108141</v>
+        <v>0.9619234720847061</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9796935235693477</v>
+        <v>0.9797068542895124</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>10638</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5393</v>
+        <v>5427</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19267</v>
+        <v>19316</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02099497290205218</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01064379711529223</v>
+        <v>0.01071084654811208</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03802433381332583</v>
+        <v>0.03812203014568743</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4066,19 +4066,19 @@
         <v>8409</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4040</v>
+        <v>3568</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16746</v>
+        <v>15680</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01717208760255573</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008250440309341916</v>
+        <v>0.007285171622108112</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03419605845873387</v>
+        <v>0.03201931494453974</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -4087,19 +4087,19 @@
         <v>19047</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11154</v>
+        <v>12053</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30077</v>
+        <v>30382</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01911614865624852</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01119389671246719</v>
+        <v>0.01209677568137911</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03018602568768527</v>
+        <v>0.03049201556712063</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>496063</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>487434</v>
+        <v>487385</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>501308</v>
+        <v>501274</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9790050270979478</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9619756661866741</v>
+        <v>0.9618779698543125</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9893562028847077</v>
+        <v>0.9892891534518879</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>447</v>
@@ -4137,19 +4137,19 @@
         <v>481289</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>472952</v>
+        <v>474018</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>485658</v>
+        <v>486130</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9828279123974443</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9658039415412664</v>
+        <v>0.9679806850554608</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9917495596906581</v>
+        <v>0.9927148283778918</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>908</v>
@@ -4158,19 +4158,19 @@
         <v>977351</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>966321</v>
+        <v>966016</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>985244</v>
+        <v>984345</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9808838513437514</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9698139743123148</v>
+        <v>0.96950798443288</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9888061032875328</v>
+        <v>0.9879032243186212</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>89111</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72207</v>
+        <v>70632</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>108325</v>
+        <v>109945</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02646379210898713</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02144375944737959</v>
+        <v>0.0209760078664561</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03216990229078866</v>
+        <v>0.03265097709661238</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -4283,19 +4283,19 @@
         <v>87510</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69946</v>
+        <v>70144</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>107425</v>
+        <v>111358</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02481282279674708</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01983269324978163</v>
+        <v>0.01988879833936267</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03045965117185383</v>
+        <v>0.03157499450389829</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>164</v>
@@ -4304,19 +4304,19 @@
         <v>176621</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>149132</v>
+        <v>151408</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>202659</v>
+        <v>206555</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02561920798679825</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0216319287960176</v>
+        <v>0.02196207516827924</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02939607328635377</v>
+        <v>0.02996126847166983</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3278171</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3258957</v>
+        <v>3257337</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3295075</v>
+        <v>3296650</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9735362078910129</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9678300977092111</v>
+        <v>0.9673490229033871</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9785562405526202</v>
+        <v>0.9790239921335432</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3245</v>
@@ -4354,19 +4354,19 @@
         <v>3439282</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3419367</v>
+        <v>3415434</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3456846</v>
+        <v>3456648</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9751871772032529</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9695403488281461</v>
+        <v>0.9684250054961017</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9801673067502183</v>
+        <v>0.9801112016606373</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6363</v>
@@ -4375,19 +4375,19 @@
         <v>6717454</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6691416</v>
+        <v>6687520</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6744943</v>
+        <v>6742667</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9743807920132017</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9706039267136456</v>
+        <v>0.9700387315283302</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9783680712039823</v>
+        <v>0.9780379248317207</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>11843</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6552</v>
+        <v>6702</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20751</v>
+        <v>20608</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02374540983957368</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01313666336796696</v>
+        <v>0.01343715944184927</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04160608845717462</v>
+        <v>0.04132067377860049</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -4740,19 +4740,19 @@
         <v>21881</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15134</v>
+        <v>14588</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35497</v>
+        <v>34203</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03508971366596386</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02426939708637274</v>
+        <v>0.0233940652448884</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05692453800603937</v>
+        <v>0.05484948333202212</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -4761,19 +4761,19 @@
         <v>33724</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24588</v>
+        <v>23768</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47196</v>
+        <v>48007</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03004850209082227</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02190806792695124</v>
+        <v>0.02117779367714555</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04205208489496445</v>
+        <v>0.04277438083135444</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>486896</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>477988</v>
+        <v>478131</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>492187</v>
+        <v>492037</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9762545901604264</v>
+        <v>0.9762545901604263</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.958393911542825</v>
+        <v>0.9586793262213998</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.986863336632033</v>
+        <v>0.9865628405581508</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>829</v>
@@ -4811,19 +4811,19 @@
         <v>601699</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>588083</v>
+        <v>589377</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>608446</v>
+        <v>608992</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9649102863340361</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9430754619939608</v>
+        <v>0.945150516667978</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9757306029136272</v>
+        <v>0.9766059347551115</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1271</v>
@@ -4832,19 +4832,19 @@
         <v>1088596</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1075124</v>
+        <v>1074313</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1097732</v>
+        <v>1098552</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9699514979091779</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9579479151050355</v>
+        <v>0.9572256191686453</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9780919320730487</v>
+        <v>0.9788222063228543</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>21452</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12811</v>
+        <v>12919</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34134</v>
+        <v>33590</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02234231716693223</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01334325966837459</v>
+        <v>0.01345553476792507</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03555081617012294</v>
+        <v>0.03498436123361646</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -4957,19 +4957,19 @@
         <v>32314</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24497</v>
+        <v>23874</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42518</v>
+        <v>42044</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02895876573638255</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02195404316868157</v>
+        <v>0.02139556109474366</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03810381529090966</v>
+        <v>0.03767911855939796</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -4978,19 +4978,19 @@
         <v>53765</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42020</v>
+        <v>42528</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69268</v>
+        <v>69589</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02589868008034667</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02024106359616999</v>
+        <v>0.02048577633367129</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03336621744009598</v>
+        <v>0.0335208444549283</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>938685</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>926003</v>
+        <v>926547</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>947326</v>
+        <v>947218</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.977657682833068</v>
+        <v>0.9776576828330679</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9644491838298772</v>
+        <v>0.9650156387663837</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9866567403316254</v>
+        <v>0.9865444652320748</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1553</v>
@@ -5028,19 +5028,19 @@
         <v>1083535</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1073331</v>
+        <v>1073805</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1091352</v>
+        <v>1091975</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9710412342636174</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9618961847090903</v>
+        <v>0.9623208814406017</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9780459568313182</v>
+        <v>0.9786044389052559</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2442</v>
@@ -5049,19 +5049,19 @@
         <v>2022221</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2006718</v>
+        <v>2006397</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2033966</v>
+        <v>2033458</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9741013199196533</v>
+        <v>0.9741013199196531</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9666337825599044</v>
+        <v>0.9664791555450711</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9797589364038303</v>
+        <v>0.9795142236663285</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>26437</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16574</v>
+        <v>17719</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40497</v>
+        <v>41936</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02526289618875937</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01583817040187684</v>
+        <v>0.01693215501809175</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03869849322460978</v>
+        <v>0.04007307911460207</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -5174,19 +5174,19 @@
         <v>26101</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19315</v>
+        <v>18830</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35634</v>
+        <v>34639</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02491373826039415</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01843627995931875</v>
+        <v>0.01797410032895566</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03401306676066608</v>
+        <v>0.03306330214586814</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -5195,19 +5195,19 @@
         <v>52538</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39875</v>
+        <v>41355</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67835</v>
+        <v>68961</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02508822032323378</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0190411663820237</v>
+        <v>0.01974823054089661</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03239297140387908</v>
+        <v>0.03293064859049218</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1020042</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1005982</v>
+        <v>1004543</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1029905</v>
+        <v>1028760</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9747371038112407</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9613015067753907</v>
+        <v>0.9599269208853978</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9841618295981232</v>
+        <v>0.9830678449819082</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1472</v>
@@ -5245,19 +5245,19 @@
         <v>1021541</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1012008</v>
+        <v>1013003</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1028327</v>
+        <v>1028812</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.975086261739606</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9659869332393338</v>
+        <v>0.9669366978541318</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9815637200406813</v>
+        <v>0.9820258996710444</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2474</v>
@@ -5266,19 +5266,19 @@
         <v>2041583</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2026286</v>
+        <v>2025160</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2054246</v>
+        <v>2052766</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9749117796767661</v>
+        <v>0.9749117796767662</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.967607028596121</v>
+        <v>0.9670693514095078</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9809588336179763</v>
+        <v>0.9802517694591034</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>22611</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12859</v>
+        <v>12225</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39772</v>
+        <v>39153</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02316908001319834</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01317565211244518</v>
+        <v>0.01252658080639066</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04075325055176146</v>
+        <v>0.04011882775740595</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -5391,19 +5391,19 @@
         <v>17922</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11466</v>
+        <v>11934</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26383</v>
+        <v>27150</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01972378543634165</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01261861151900615</v>
+        <v>0.01313368799503405</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02903509882474532</v>
+        <v>0.02988019687182088</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -5412,19 +5412,19 @@
         <v>40533</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28292</v>
+        <v>28254</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58046</v>
+        <v>58078</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02150793845639956</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01501255057178785</v>
+        <v>0.01499250264675804</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03080072789010345</v>
+        <v>0.03081737161887888</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>953318</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>936157</v>
+        <v>936776</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>963070</v>
+        <v>963704</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9768309199868016</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9592467494482384</v>
+        <v>0.9598811722425939</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9868243478875548</v>
+        <v>0.9874734191936093</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1295</v>
@@ -5462,19 +5462,19 @@
         <v>890720</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>882259</v>
+        <v>881492</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>897176</v>
+        <v>896708</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9802762145636584</v>
+        <v>0.9802762145636582</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9709649011752548</v>
+        <v>0.9701198031281792</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9873813884809938</v>
+        <v>0.9868663120049659</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2224</v>
@@ -5483,19 +5483,19 @@
         <v>1844038</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1826525</v>
+        <v>1826493</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1856279</v>
+        <v>1856317</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9784920615436004</v>
+        <v>0.9784920615436005</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9691992721098963</v>
+        <v>0.9691826283811208</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.984987449428212</v>
+        <v>0.9850074973532418</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>82343</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64046</v>
+        <v>63330</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>105725</v>
+        <v>105383</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02365303016605036</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01839713368289594</v>
+        <v>0.01819147218606718</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0303696744470976</v>
+        <v>0.03027138577468272</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>156</v>
@@ -5608,19 +5608,19 @@
         <v>98217</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83761</v>
+        <v>80964</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>118514</v>
+        <v>116909</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02657603430511478</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02266423384356383</v>
+        <v>0.02190764353412446</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03206784097757317</v>
+        <v>0.03163377142361989</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>235</v>
@@ -5629,19 +5629,19 @@
         <v>180560</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>155648</v>
+        <v>157151</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>209573</v>
+        <v>212396</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02515819787384463</v>
+        <v>0.02515819787384464</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02168707637110988</v>
+        <v>0.02189651279960916</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02920067623359819</v>
+        <v>0.02959401202104643</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3398941</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3375559</v>
+        <v>3375901</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3417238</v>
+        <v>3417954</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9763469698339496</v>
+        <v>0.9763469698339495</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9696303255529023</v>
+        <v>0.9697286142253174</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9816028663171043</v>
+        <v>0.9818085278139329</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5149</v>
@@ -5679,19 +5679,19 @@
         <v>3597496</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3577199</v>
+        <v>3578804</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3611952</v>
+        <v>3614749</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9734239656948854</v>
+        <v>0.9734239656948853</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9679321590224267</v>
+        <v>0.96836622857638</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9773357661564361</v>
+        <v>0.9780923564658756</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8411</v>
@@ -5700,19 +5700,19 @@
         <v>6996438</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6967425</v>
+        <v>6964602</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7021350</v>
+        <v>7019847</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9748418021261551</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9707993237664019</v>
+        <v>0.9704059879789538</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9783129236288902</v>
+        <v>0.9781034872003911</v>
       </c>
     </row>
     <row r="18">
